--- a/data/trans_camb/P23_DUKE_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>63,94</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,67</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>66,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 9,48</t>
+          <t>-8,91; 11,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 11,61</t>
+          <t>-8,32; 10,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,26; 74,66</t>
+          <t>-4,71; 16,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 9,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 23,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,27; 73,83</t>
+          <t>-1,31; 16,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 7,81</t>
+          <t>-6,78; 10,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 14,32</t>
+          <t>0,06; 19,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,8; 71,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 10,73</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 8,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 15,22</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>266,92%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>425,51%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>345,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 62,94</t>
+          <t>-9,97; 14,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,26; 79,29</t>
+          <t>-9,39; 12,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>122,13; 533,05</t>
+          <t>-5,14; 21,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 76,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 170,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>280,48; 630,89</t>
+          <t>-1,45; 23,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 54,43</t>
+          <t>-8,02; 14,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 91,73</t>
+          <t>0,2; 26,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>208,74; 483,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 14,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 10,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 20,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,18</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,04</t>
+          <t>-3,03; 12,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,81</t>
+          <t>-5,35; 10,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64,37; 74,99</t>
+          <t>-0,85; 15,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,56; 65,85</t>
+          <t>-2,3; 8,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,05</t>
+          <t>-3,79; 6,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,23</t>
+          <t>-3,92; 7,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,5; 69,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 8,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 7,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 9,59</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>434,7%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>285,12%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>350,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 44,29</t>
+          <t>-3,54; 17,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 48,72</t>
+          <t>-6,26; 13,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>326,77; 574,74</t>
+          <t>-1,0; 21,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,7; -7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>224,36; 361,47</t>
+          <t>-2,65; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 6,32</t>
+          <t>-4,35; 8,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 18,95</t>
+          <t>-4,47; 9,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>290,78; 421,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 11,14</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 8,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 12,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,74</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,93</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>67,93</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 2,77</t>
+          <t>3,01; 17,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 6,09</t>
+          <t>-1,7; 13,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,71; 73,83</t>
+          <t>0,37; 15,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 8,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,67; 75,48</t>
+          <t>-7,79; 2,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,38</t>
+          <t>-6,65; 2,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 5,96</t>
+          <t>-7,37; 2,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,18; 72,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 7,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 6,27</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 7,13</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,5%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>513,71%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>580,97%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>547,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 31,51</t>
+          <t>3,55; 24,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 69,0</t>
+          <t>-1,93; 18,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>312,98; 791,55</t>
+          <t>0,48; 21,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,42; 41,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 85,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>421,04; 793,64</t>
+          <t>-8,36; 2,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 23,08</t>
+          <t>-7,22; 3,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 58,58</t>
+          <t>-8,01; 2,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>401,07; 729,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 9,66</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 7,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 8,94</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>68,76</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>65,37</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>67,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 3,32</t>
+          <t>-8,26; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,65; 72,64</t>
+          <t>-5,24; 8,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,41; 68,65</t>
+          <t>-4,75; 7,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,73</t>
+          <t>-0,01; 11,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,11; 69,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 4,51</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 9,07</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>422,47%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>377,87%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>398,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,04%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 24,08</t>
+          <t>-9,47; 5,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 35,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>319,02; 539,08</t>
+          <t>-6,12; 10,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 4,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 38,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>312,2; 442,75</t>
+          <t>-5,63; 9,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 30,84</t>
+          <t>0,02; 15,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>340,85; 454,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 5,52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 11,32</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 6,49</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 5,54</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 9,05</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 5,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 4,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 6,28</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 5,06</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 3,87</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,66</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 8,21</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 7,03</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 11,32</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 6,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 5,19</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 7,61</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 6,27</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 4,77</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 8,27</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
